--- a/mitochondria distance/010725_mito_OA/3K_OA_settings_analysis_by_image.xlsx
+++ b/mitochondria distance/010725_mito_OA/3K_OA_settings_analysis_by_image.xlsx
@@ -481,10 +481,10 @@
         <v>0.08108295249965379</v>
       </c>
       <c r="C3" t="n">
-        <v>0.08222092219326703</v>
+        <v>0.07451851851851851</v>
       </c>
       <c r="D3" t="n">
-        <v>0.03262784724138663</v>
+        <v>0.03284199098045766</v>
       </c>
     </row>
     <row r="4">
@@ -497,10 +497,10 @@
         <v>0.06043103448275862</v>
       </c>
       <c r="C4" t="n">
-        <v>0.08068292682926829</v>
+        <v>0.1158952959028832</v>
       </c>
       <c r="D4" t="n">
-        <v>0.03551633379780152</v>
+        <v>0.04170825801926242</v>
       </c>
     </row>
     <row r="5">
@@ -513,10 +513,10 @@
         <v>0.03819575323533107</v>
       </c>
       <c r="C5" t="n">
-        <v>0.06866564000362352</v>
+        <v>0.08033510845564359</v>
       </c>
       <c r="D5" t="n">
-        <v>0.04304816263708074</v>
+        <v>0.0431056293485136</v>
       </c>
     </row>
     <row r="6">
@@ -529,10 +529,10 @@
         <v>0.2735546437896307</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2075838599902771</v>
+        <v>0.2490368150684932</v>
       </c>
       <c r="D6" t="n">
-        <v>0.06627853826352635</v>
+        <v>0.06525789486097026</v>
       </c>
     </row>
     <row r="7">
@@ -545,10 +545,10 @@
         <v>0.08683766181555037</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1408738134256826</v>
+        <v>0.1627040816326531</v>
       </c>
       <c r="D7" t="n">
-        <v>0.04113842173350582</v>
+        <v>0.04643240895269884</v>
       </c>
     </row>
     <row r="8">
@@ -561,10 +561,10 @@
         <v>0.02357130744446329</v>
       </c>
       <c r="C8" t="n">
-        <v>0.09770180006792709</v>
+        <v>0.2629858336360334</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0601801269747527</v>
+        <v>0.05975312985604128</v>
       </c>
     </row>
     <row r="9">
@@ -577,10 +577,10 @@
         <v>0.00457941672692215</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1207385631027902</v>
+        <v>0.1954151283592341</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0483264492237573</v>
+        <v>0.04769807952469282</v>
       </c>
     </row>
     <row r="10">
@@ -593,10 +593,10 @@
         <v>0.03824350621880024</v>
       </c>
       <c r="C10" t="n">
-        <v>0.068148377603965</v>
+        <v>0.1442407471463162</v>
       </c>
       <c r="D10" t="n">
-        <v>0.01026411315558893</v>
+        <v>0.01087661836047338</v>
       </c>
     </row>
     <row r="11">
